--- a/flow/data/WW_Treat_Key.xlsx
+++ b/flow/data/WW_Treat_Key.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mong275\Local Files\Repos\interconnection_sankeys\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mong275\Local Files\Repos\flow\flow\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99180761-B630-4C37-A2A8-1DF6C248B522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9360CC-DE97-41ED-9B13-AD9FE788B52C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-495" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{6B076B1A-E2B8-4232-8585-9AABE9782B96}"/>
   </bookViews>
@@ -423,16 +423,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -440,7 +440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -456,7 +456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
